--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T09:13:58+00:00</t>
+    <t>2022-03-30T09:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:29:59+00:00</t>
+    <t>2022-03-30T09:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:36:20+00:00</t>
+    <t>2022-03-30T09:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T09:37:53+00:00</t>
+    <t>2022-03-31T12:02:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T12:02:56+00:00</t>
+    <t>2022-04-20T16:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:54:19+00:00</t>
+    <t>2022-04-21T07:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T07:12:34+00:00</t>
+    <t>2022-04-22T12:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:41:11+00:00</t>
+    <t>2022-04-22T12:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T12:50:48+00:00</t>
+    <t>2022-04-22T14:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T14:55:40+00:00</t>
+    <t>2022-05-04T13:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:51:33+00:00</t>
+    <t>2022-05-23T11:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:41:38+00:00</t>
+    <t>2022-05-23T13:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T13:12:45+00:00</t>
+    <t>2022-05-24T10:44:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:44:26+00:00</t>
+    <t>2022-07-14T07:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:12:54+00:00</t>
+    <t>2022-07-25T13:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:12:11+00:00</t>
+    <t>2022-07-25T14:21:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:21:42+00:00</t>
+    <t>2022-07-25T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:41:10+00:00</t>
+    <t>2022-08-01T09:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:41:51+00:00</t>
+    <t>2022-08-01T09:45:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:45:26+00:00</t>
+    <t>2022-08-01T09:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:59:26+00:00</t>
+    <t>2022-08-03T15:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:26:13+00:00</t>
+    <t>2022-08-08T13:17:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:17:46+00:00</t>
+    <t>2022-08-08T13:24:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>SD_Body_Height</t>
+    <t>Body_Height</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T13:24:36+00:00</t>
+    <t>2022-08-09T12:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T12:15:50+00:00</t>
+    <t>2022-08-10T11:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T11:55:04+00:00</t>
+    <t>2022-08-15T15:57:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T15:57:18+00:00</t>
+    <t>2022-08-22T12:50:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T12:50:52+00:00</t>
+    <t>2022-08-24T11:54:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T11:54:47+00:00</t>
+    <t>2022-08-24T12:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T12:54:24+00:00</t>
+    <t>2022-08-25T14:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T14:53:23+00:00</t>
+    <t>2022-08-26T08:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:02:23+00:00</t>
+    <t>2022-08-26T08:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T08:17:36+00:00</t>
+    <t>2022-09-08T11:37:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T11:37:37+00:00</t>
+    <t>2022-09-22T12:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:10:51+00:00</t>
+    <t>2022-09-22T12:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T12:32:38+00:00</t>
+    <t>2022-11-21T12:36:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,10 +277,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -302,7 +298,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -698,6 +694,10 @@
   </si>
   <si>
     <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2121,37 +2121,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.97265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="148.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -2382,19 +2382,19 @@
         <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>82</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2416,28 +2416,28 @@
         <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2487,13 +2487,13 @@
         <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>82</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2533,25 +2533,25 @@
         <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2602,19 +2602,19 @@
         <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2648,28 +2648,28 @@
         <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2719,19 +2719,19 @@
         <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2765,7 +2765,7 @@
         <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>82</v>
@@ -2777,16 +2777,16 @@
         <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2812,43 +2812,43 @@
         <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>82</v>
@@ -2871,18 +2871,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>82</v>
@@ -2894,16 +2894,16 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2953,31 +2953,31 @@
         <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>82</v>
@@ -2988,11 +2988,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3011,16 +3011,16 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3070,7 +3070,7 @@
         <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -3094,7 +3094,7 @@
         <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>82</v>
@@ -3105,11 +3105,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3128,16 +3128,16 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3187,7 +3187,7 @@
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>80</v>
@@ -3199,7 +3199,7 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>82</v>
@@ -3211,7 +3211,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -3222,11 +3222,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3239,25 +3239,25 @@
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>82</v>
@@ -3306,7 +3306,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>80</v>
@@ -3318,7 +3318,7 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -3330,7 +3330,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3361,20 +3361,20 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>82</v>
@@ -3423,7 +3423,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>80</v>
@@ -3435,22 +3435,22 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
@@ -3458,11 +3458,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3478,20 +3478,20 @@
         <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
@@ -3540,7 +3540,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>80</v>
@@ -3552,19 +3552,19 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3575,11 +3575,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3595,19 +3595,19 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3657,7 +3657,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -3669,19 +3669,19 @@
         <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3700,34 +3700,34 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
@@ -3752,58 +3752,58 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3819,13 +3819,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -3834,19 +3834,19 @@
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3871,29 +3871,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>80</v>
@@ -3905,7 +3905,7 @@
         <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3917,10 +3917,10 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -3928,20 +3928,20 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>82</v>
@@ -3953,19 +3953,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3975,7 +3975,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3990,14 +3990,14 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>80</v>
@@ -4026,7 +4026,7 @@
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>82</v>
@@ -4038,10 +4038,10 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4049,42 +4049,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -4109,66 +4109,66 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4179,7 +4179,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>82</v>
@@ -4191,7 +4191,7 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>218</v>
@@ -4254,7 +4254,7 @@
         <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4306,16 +4306,16 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4362,7 +4362,7 @@
         <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>226</v>
@@ -4377,7 +4377,7 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>82</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>81</v>
@@ -4420,7 +4420,7 @@
         <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>228</v>
@@ -4472,14 +4472,14 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>233</v>
@@ -4494,7 +4494,7 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>81</v>
@@ -4539,7 +4539,7 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>228</v>
@@ -4615,7 +4615,7 @@
         <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
@@ -4649,7 +4649,7 @@
         <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>82</v>
@@ -4661,7 +4661,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>218</v>
@@ -4724,7 +4724,7 @@
         <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>82</v>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4776,16 +4776,16 @@
         <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4832,7 +4832,7 @@
         <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>226</v>
@@ -4847,7 +4847,7 @@
         <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>82</v>
@@ -4878,22 +4878,22 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>241</v>
@@ -4960,13 +4960,13 @@
         <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -5000,19 +5000,19 @@
         <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>249</v>
@@ -5077,13 +5077,13 @@
         <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5114,22 +5114,22 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>256</v>
@@ -5194,13 +5194,13 @@
         <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -5234,19 +5234,19 @@
         <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>263</v>
@@ -5311,13 +5311,13 @@
         <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>82</v>
@@ -5351,16 +5351,16 @@
         <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>270</v>
@@ -5430,13 +5430,13 @@
         <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5481,7 +5481,7 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>228</v>
@@ -5557,7 +5557,7 @@
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5591,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5603,7 +5603,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>218</v>
@@ -5666,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5718,16 +5718,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5774,7 +5774,7 @@
         <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>226</v>
@@ -5789,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -5820,22 +5820,22 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>241</v>
@@ -5902,13 +5902,13 @@
         <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>82</v>
@@ -5942,19 +5942,19 @@
         <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>249</v>
@@ -6019,13 +6019,13 @@
         <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
@@ -6056,22 +6056,22 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>256</v>
@@ -6136,13 +6136,13 @@
         <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6176,19 +6176,19 @@
         <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>263</v>
@@ -6253,13 +6253,13 @@
         <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6293,16 +6293,16 @@
         <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>270</v>
@@ -6372,13 +6372,13 @@
         <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -6412,19 +6412,19 @@
         <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>281</v>
@@ -6491,13 +6491,13 @@
         <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>82</v>
@@ -6528,19 +6528,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>289</v>
@@ -6610,13 +6610,13 @@
         <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>294</v>
@@ -6659,7 +6659,7 @@
         <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>299</v>
@@ -6733,7 +6733,7 @@
         <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>82</v>
@@ -6742,7 +6742,7 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>303</v>
@@ -6767,16 +6767,16 @@
         <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>306</v>
@@ -6846,13 +6846,13 @@
         <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>311</v>
@@ -6883,19 +6883,19 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>317</v>
@@ -6954,7 +6954,7 @@
         <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>315</v>
@@ -6963,7 +6963,7 @@
         <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>82</v>
@@ -7003,16 +7003,16 @@
         <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>329</v>
@@ -7080,13 +7080,13 @@
         <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>82</v>
@@ -7129,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>337</v>
@@ -7203,7 +7203,7 @@
         <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>341</v>
@@ -7237,16 +7237,16 @@
         <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>346</v>
@@ -7314,13 +7314,13 @@
         <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
@@ -7356,16 +7356,16 @@
         <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>346</v>
@@ -7435,13 +7435,13 @@
         <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>82</v>
@@ -7475,7 +7475,7 @@
         <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>82</v>
@@ -7487,7 +7487,7 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>218</v>
@@ -7550,7 +7550,7 @@
         <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>82</v>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7602,16 +7602,16 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7658,7 +7658,7 @@
         <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>226</v>
@@ -7673,7 +7673,7 @@
         <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>82</v>
@@ -7704,19 +7704,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>360</v>
@@ -7786,13 +7786,13 @@
         <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7826,19 +7826,19 @@
         <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>369</v>
@@ -7875,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X49" t="s" s="2">
         <v>373</v>
@@ -7905,13 +7905,13 @@
         <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
@@ -7942,22 +7942,22 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>379</v>
@@ -8022,13 +8022,13 @@
         <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -8059,22 +8059,22 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="H51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>386</v>
@@ -8139,13 +8139,13 @@
         <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>391</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>82</v>
@@ -8176,22 +8176,22 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>394</v>
@@ -8228,7 +8228,7 @@
         <v>82</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
@@ -8256,13 +8256,13 @@
         <v>80</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>82</v>
@@ -8296,11 +8296,11 @@
         <v>80</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>402</v>
@@ -8375,13 +8375,13 @@
         <v>80</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>409</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8390,7 +8390,7 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>410</v>
@@ -8427,7 +8427,7 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>413</v>
@@ -8500,7 +8500,7 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
@@ -8619,7 +8619,7 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
@@ -8653,7 +8653,7 @@
         <v>80</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>82</v>
@@ -8665,7 +8665,7 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>432</v>
@@ -8700,7 +8700,7 @@
         <v>82</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X56" t="s" s="2">
         <v>435</v>
@@ -8730,13 +8730,13 @@
         <v>80</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8770,7 +8770,7 @@
         <v>80</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>82</v>
@@ -8782,7 +8782,7 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>442</v>
@@ -8819,7 +8819,7 @@
         <v>82</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>446</v>
@@ -8849,13 +8849,13 @@
         <v>80</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>82</v>
@@ -8889,7 +8889,7 @@
         <v>80</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>82</v>
@@ -8966,13 +8966,13 @@
         <v>80</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>82</v>
@@ -9006,7 +9006,7 @@
         <v>80</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>82</v>
@@ -9083,13 +9083,13 @@
         <v>80</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
@@ -9242,7 +9242,7 @@
         <v>80</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>82</v>
@@ -9254,7 +9254,7 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>218</v>
@@ -9317,7 +9317,7 @@
         <v>80</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>82</v>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9369,16 +9369,16 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9440,7 +9440,7 @@
         <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>82</v>
@@ -9480,13 +9480,13 @@
         <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>481</v>
@@ -9495,10 +9495,10 @@
         <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>82</v>
@@ -9559,7 +9559,7 @@
         <v>82</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>82</v>
@@ -9571,7 +9571,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9593,7 +9593,7 @@
         <v>80</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>82</v>
@@ -9668,13 +9668,13 @@
         <v>80</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>488</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9708,7 +9708,7 @@
         <v>80</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>82</v>
@@ -9783,13 +9783,13 @@
         <v>80</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>488</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9823,7 +9823,7 @@
         <v>80</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
@@ -9835,7 +9835,7 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>496</v>
@@ -9872,7 +9872,7 @@
         <v>82</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>500</v>
@@ -9902,13 +9902,13 @@
         <v>80</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>82</v>
@@ -9954,7 +9954,7 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>505</v>
@@ -9991,7 +9991,7 @@
         <v>82</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X67" t="s" s="2">
         <v>509</v>
@@ -10027,7 +10027,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -10061,7 +10061,7 @@
         <v>80</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>82</v>
@@ -10138,13 +10138,13 @@
         <v>80</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10178,7 +10178,7 @@
         <v>80</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
@@ -10190,7 +10190,7 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>518</v>
@@ -10253,13 +10253,13 @@
         <v>80</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10302,7 +10302,7 @@
         <v>82</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>522</v>
@@ -10376,7 +10376,7 @@
         <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>82</v>
@@ -10419,7 +10419,7 @@
         <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>529</v>
@@ -10493,7 +10493,7 @@
         <v>82</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10536,7 +10536,7 @@
         <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>469</v>
@@ -10612,7 +10612,7 @@
         <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10646,7 +10646,7 @@
         <v>80</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>82</v>
@@ -10658,7 +10658,7 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>218</v>
@@ -10721,7 +10721,7 @@
         <v>80</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>82</v>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10773,16 +10773,16 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>223</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10844,7 +10844,7 @@
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -10884,13 +10884,13 @@
         <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>481</v>
@@ -10899,10 +10899,10 @@
         <v>482</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>82</v>
@@ -10963,7 +10963,7 @@
         <v>82</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>82</v>
@@ -10975,7 +10975,7 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
@@ -10994,22 +10994,22 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="F76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>545</v>
@@ -11021,7 +11021,7 @@
         <v>547</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>82</v>
@@ -11046,13 +11046,13 @@
         <v>82</v>
       </c>
       <c r="W76" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X76" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X76" t="s" s="2">
+      <c r="Y76" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>82</v>
@@ -11073,16 +11073,16 @@
         <v>544</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>82</v>
@@ -11091,13 +11091,13 @@
         <v>548</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
@@ -11116,16 +11116,16 @@
         <v>80</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>550</v>
@@ -11195,13 +11195,13 @@
         <v>80</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>82</v>
@@ -11235,7 +11235,7 @@
         <v>80</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>82</v>
@@ -11247,7 +11247,7 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>557</v>
@@ -11314,13 +11314,13 @@
         <v>80</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>560</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>82</v>
@@ -11329,7 +11329,7 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>410</v>
@@ -11366,7 +11366,7 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>413</v>
@@ -11439,7 +11439,7 @@
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>82</v>
@@ -11558,7 +11558,7 @@
         <v>82</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:27:03+00:00</t>
+    <t>2023-03-22T15:45:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:20+00:00</t>
+    <t>2023-03-22T15:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T15:45:58+00:00</t>
+    <t>2023-04-03T10:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T10:13:34+00:00</t>
+    <t>2023-04-03T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:34:04+00:00</t>
+    <t>2023-04-03T12:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T12:58:47+00:00</t>
+    <t>2023-04-03T13:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:27:14+00:00</t>
+    <t>2023-04-03T13:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-03T13:54:41+00:00</t>
+    <t>2023-04-04T16:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2185,19 +2189,19 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>41</v>
@@ -2208,10 +2212,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2222,7 +2226,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -2231,19 +2235,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2293,13 +2297,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -2328,10 +2332,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2342,7 +2346,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -2351,16 +2355,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2411,19 +2415,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -2446,10 +2450,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2460,28 +2464,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2531,19 +2535,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2566,10 +2570,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2580,7 +2584,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2592,16 +2596,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2627,13 +2631,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2651,19 +2655,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2686,21 +2690,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2712,16 +2716,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2771,19 +2775,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2795,7 +2799,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>41</v>
@@ -2806,14 +2810,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2832,16 +2836,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2891,7 +2895,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2915,7 +2919,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>41</v>
@@ -2926,14 +2930,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2952,16 +2956,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3011,7 +3015,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -3023,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -3035,7 +3039,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>41</v>
@@ -3046,14 +3050,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3066,25 +3070,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -3133,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -3145,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -3157,7 +3161,7 @@
         <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>41</v>
@@ -3168,10 +3172,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3191,20 +3195,20 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -3253,7 +3257,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3265,22 +3269,22 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>41</v>
@@ -3288,14 +3292,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3311,20 +3315,20 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -3373,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3385,19 +3389,19 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>41</v>
@@ -3408,14 +3412,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3431,19 +3435,19 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3493,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3505,19 +3509,19 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3528,10 +3532,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3539,34 +3543,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3591,13 +3595,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3615,34 +3619,34 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3650,10 +3654,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3661,13 +3665,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>41</v>
@@ -3676,19 +3680,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3713,29 +3717,29 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3747,7 +3751,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3759,10 +3763,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3770,23 +3774,23 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3798,19 +3802,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3820,7 +3824,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3835,13 +3839,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3859,7 +3863,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3871,7 +3875,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3883,10 +3887,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3894,45 +3898,45 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3957,13 +3961,13 @@
         <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>41</v>
@@ -3981,45 +3985,45 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4030,7 +4034,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -4042,13 +4046,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4099,13 +4103,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -4123,7 +4127,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4134,14 +4138,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4160,16 +4164,16 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4207,19 +4211,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4231,7 +4235,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -4243,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4254,10 +4258,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4265,7 +4269,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -4277,22 +4281,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -4329,17 +4333,17 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4351,7 +4355,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -4360,10 +4364,10 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4374,20 +4378,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
@@ -4399,22 +4403,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
@@ -4424,7 +4428,7 @@
         <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>41</v>
@@ -4463,7 +4467,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4475,7 +4479,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -4484,10 +4488,10 @@
         <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4498,10 +4502,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4512,7 +4516,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4524,13 +4528,13 @@
         <v>41</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4581,13 +4585,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -4605,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4616,14 +4620,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4642,16 +4646,16 @@
         <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4689,19 +4693,19 @@
         <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4713,7 +4717,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -4725,7 +4729,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4736,10 +4740,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4747,10 +4751,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4759,22 +4763,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4823,19 +4827,19 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -4844,10 +4848,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4858,10 +4862,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4872,7 +4876,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4881,19 +4885,19 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4943,19 +4947,19 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -4964,10 +4968,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4978,10 +4982,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4989,10 +4993,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -5001,20 +5005,20 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5063,19 +5067,19 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -5084,10 +5088,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5098,10 +5102,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5112,7 +5116,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -5121,20 +5125,20 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5183,19 +5187,19 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -5204,10 +5208,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5218,10 +5222,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5232,7 +5236,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -5241,22 +5245,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5305,19 +5309,19 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -5326,10 +5330,10 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>41</v>
@@ -5340,13 +5344,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>41</v>
@@ -5365,22 +5369,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -5390,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>41</v>
@@ -5429,7 +5433,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5441,7 +5445,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -5450,10 +5454,10 @@
         <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5464,10 +5468,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5478,7 +5482,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -5490,13 +5494,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5547,13 +5551,13 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
@@ -5571,7 +5575,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5582,14 +5586,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5608,16 +5612,16 @@
         <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5655,19 +5659,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5679,7 +5683,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -5691,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5702,10 +5706,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5713,10 +5717,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5725,22 +5729,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5789,19 +5793,19 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -5810,10 +5814,10 @@
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5824,10 +5828,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5838,7 +5842,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5847,19 +5851,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5909,19 +5913,19 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -5930,10 +5934,10 @@
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5944,10 +5948,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5955,10 +5959,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5967,20 +5971,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -6029,19 +6033,19 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -6050,10 +6054,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6064,10 +6068,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6078,7 +6082,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -6087,20 +6091,20 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -6149,19 +6153,19 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -6170,10 +6174,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6184,10 +6188,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6198,7 +6202,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -6207,22 +6211,22 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6271,19 +6275,19 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -6292,10 +6296,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6306,10 +6310,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6320,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -6329,22 +6333,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6393,19 +6397,19 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
@@ -6414,10 +6418,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6428,10 +6432,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6439,34 +6443,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6515,34 +6519,34 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>41</v>
@@ -6550,10 +6554,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6573,19 +6577,19 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6635,7 +6639,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6647,7 +6651,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -6656,13 +6660,13 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>41</v>
@@ -6670,21 +6674,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>41</v>
@@ -6693,22 +6697,22 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6757,34 +6761,34 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6792,45 +6796,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6867,44 +6871,44 @@
         <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6912,10 +6916,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6926,7 +6930,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6935,19 +6939,19 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6997,19 +7001,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -7018,13 +7022,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -7032,10 +7036,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7055,20 +7059,20 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7117,7 +7121,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7129,22 +7133,22 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7152,10 +7156,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7166,31 +7170,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7239,45 +7243,45 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7288,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -7300,13 +7304,13 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7357,13 +7361,13 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>41</v>
@@ -7381,7 +7385,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7392,14 +7396,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7418,16 +7422,16 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7465,19 +7469,19 @@
         <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7489,7 +7493,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -7501,7 +7505,7 @@
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7512,10 +7516,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7523,34 +7527,34 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7599,19 +7603,19 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -7620,10 +7624,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7634,10 +7638,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7648,35 +7652,35 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>41</v>
@@ -7697,13 +7701,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7721,19 +7725,19 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -7742,10 +7746,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7756,10 +7760,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7767,32 +7771,32 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7841,19 +7845,19 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -7862,10 +7866,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7876,10 +7880,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7887,32 +7891,32 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7922,7 +7926,7 @@
         <v>41</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>41</v>
@@ -7961,19 +7965,19 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -7982,10 +7986,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7996,10 +8000,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8007,34 +8011,34 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8059,11 +8063,11 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -8081,19 +8085,19 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>41</v>
@@ -8102,10 +8106,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8116,10 +8120,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8130,10 +8134,10 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>41</v>
@@ -8142,19 +8146,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8179,13 +8183,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8203,19 +8207,19 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -8224,10 +8228,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8238,14 +8242,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8264,19 +8268,19 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>41</v>
@@ -8301,13 +8305,13 @@
         <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>41</v>
@@ -8325,7 +8329,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8337,33 +8341,33 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8386,19 +8390,19 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -8447,7 +8451,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8459,7 +8463,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -8468,10 +8472,10 @@
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8482,10 +8486,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8496,7 +8500,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -8508,16 +8512,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8543,13 +8547,13 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -8567,45 +8571,45 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8616,7 +8620,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8628,19 +8632,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8665,13 +8669,13 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8689,19 +8693,19 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
@@ -8710,10 +8714,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8724,10 +8728,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8738,7 +8742,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>41</v>
@@ -8750,16 +8754,16 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8809,45 +8813,45 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8858,7 +8862,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>41</v>
@@ -8870,16 +8874,16 @@
         <v>41</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8929,45 +8933,45 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8990,19 +8994,19 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
@@ -9051,7 +9055,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9063,7 +9067,7 @@
         <v>41</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -9072,10 +9076,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9086,10 +9090,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9100,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>41</v>
@@ -9112,13 +9116,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9169,13 +9173,13 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>41</v>
@@ -9193,7 +9197,7 @@
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9204,14 +9208,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9230,16 +9234,16 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9289,7 +9293,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9301,7 +9305,7 @@
         <v>41</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>41</v>
@@ -9313,7 +9317,7 @@
         <v>41</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9324,14 +9328,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9344,25 +9348,25 @@
         <v>41</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9411,7 +9415,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9423,7 +9427,7 @@
         <v>41</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>41</v>
@@ -9435,7 +9439,7 @@
         <v>41</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9446,10 +9450,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9460,7 +9464,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>41</v>
@@ -9472,13 +9476,13 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9529,19 +9533,19 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>41</v>
@@ -9550,10 +9554,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9564,10 +9568,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9578,7 +9582,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>41</v>
@@ -9590,13 +9594,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9647,19 +9651,19 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>41</v>
@@ -9668,10 +9672,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9682,10 +9686,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9696,7 +9700,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>41</v>
@@ -9708,19 +9712,19 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9745,13 +9749,13 @@
         <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>41</v>
@@ -9769,31 +9773,31 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9804,10 +9808,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9830,19 +9834,19 @@
         <v>41</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9867,13 +9871,13 @@
         <v>41</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>41</v>
@@ -9891,7 +9895,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9903,19 +9907,19 @@
         <v>41</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9926,10 +9930,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9940,7 +9944,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>41</v>
@@ -9952,17 +9956,17 @@
         <v>41</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -10011,19 +10015,19 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>41</v>
@@ -10035,7 +10039,7 @@
         <v>41</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10046,10 +10050,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10060,7 +10064,7 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>41</v>
@@ -10072,13 +10076,13 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10129,19 +10133,19 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>41</v>
@@ -10150,10 +10154,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10164,10 +10168,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10187,19 +10191,19 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10249,7 +10253,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10261,7 +10265,7 @@
         <v>41</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>41</v>
@@ -10270,10 +10274,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10284,10 +10288,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10307,19 +10311,19 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10369,7 +10373,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10381,7 +10385,7 @@
         <v>41</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>41</v>
@@ -10390,10 +10394,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10404,10 +10408,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10427,22 +10431,22 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10491,7 +10495,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10503,7 +10507,7 @@
         <v>41</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>41</v>
@@ -10512,10 +10516,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10526,10 +10530,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10540,7 +10544,7 @@
         <v>39</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>41</v>
@@ -10552,13 +10556,13 @@
         <v>41</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10609,13 +10613,13 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>41</v>
@@ -10633,7 +10637,7 @@
         <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10644,14 +10648,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10670,16 +10674,16 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10729,7 +10733,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10741,7 +10745,7 @@
         <v>41</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>41</v>
@@ -10753,7 +10757,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10764,14 +10768,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10784,25 +10788,25 @@
         <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10851,7 +10855,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10863,7 +10867,7 @@
         <v>41</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>41</v>
@@ -10875,7 +10879,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10886,10 +10890,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10897,10 +10901,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>41</v>
@@ -10909,22 +10913,22 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10949,13 +10953,13 @@
         <v>41</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>41</v>
@@ -10973,34 +10977,34 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>41</v>
@@ -11008,10 +11012,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11022,7 +11026,7 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>41</v>
@@ -11031,22 +11035,22 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -11095,45 +11099,45 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11144,7 +11148,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>41</v>
@@ -11156,19 +11160,19 @@
         <v>41</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -11193,13 +11197,13 @@
         <v>41</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>41</v>
@@ -11217,19 +11221,19 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>41</v>
@@ -11238,10 +11242,10 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11252,14 +11256,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11278,19 +11282,19 @@
         <v>41</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11315,13 +11319,13 @@
         <v>41</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>41</v>
@@ -11339,7 +11343,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11351,33 +11355,33 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11403,16 +11407,16 @@
         <v>42</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11461,7 +11465,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11473,7 +11477,7 @@
         <v>41</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>41</v>
@@ -11482,10 +11486,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-body-height.xlsx
+++ b/StructureDefinition-body-height.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
